--- a/analysis/xlsx/연령대별_판매량.xlsx
+++ b/analysis/xlsx/연령대별_판매량.xlsx
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>574732000</v>
+        <v>511514000</v>
       </c>
       <c r="D3" t="n">
-        <v>574732000</v>
+        <v>511514000</v>
       </c>
     </row>
     <row r="4">
@@ -503,10 +503,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>546125000</v>
+        <v>544520000</v>
       </c>
       <c r="D4" t="n">
-        <v>546125000</v>
+        <v>544520000</v>
       </c>
     </row>
     <row r="5">
@@ -519,10 +519,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>282520000</v>
+        <v>347343000</v>
       </c>
       <c r="D5" t="n">
-        <v>282520000</v>
+        <v>347343000</v>
       </c>
     </row>
     <row r="6">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1211841000</v>
+        <v>1137201000</v>
       </c>
       <c r="D7" t="n">
-        <v>1848950000</v>
+        <v>1762888000</v>
       </c>
     </row>
     <row r="8">
@@ -567,10 +567,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1185678000</v>
+        <v>1155804600</v>
       </c>
       <c r="D8" t="n">
-        <v>1825231000</v>
+        <v>1767089200</v>
       </c>
     </row>
     <row r="9">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>641246600</v>
+        <v>745760000</v>
       </c>
       <c r="D9" t="n">
-        <v>999973200</v>
+        <v>1144177000</v>
       </c>
     </row>
     <row r="10">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1048587000</v>
+        <v>974483100</v>
       </c>
       <c r="D11" t="n">
-        <v>1418908333.333313</v>
+        <v>1337368466.666687</v>
       </c>
     </row>
     <row r="12">
@@ -631,10 +631,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1011924000</v>
+        <v>992600100</v>
       </c>
       <c r="D12" t="n">
-        <v>1380374666.666687</v>
+        <v>1345721666.666687</v>
       </c>
     </row>
     <row r="13">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>549723200</v>
+        <v>643151000</v>
       </c>
       <c r="D13" t="n">
-        <v>758366466.6666565</v>
+        <v>874559333.333313</v>
       </c>
     </row>
     <row r="14">
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1211101000</v>
+        <v>1109919000</v>
       </c>
       <c r="D15" t="n">
-        <v>1448028500</v>
+        <v>1341403550</v>
       </c>
     </row>
     <row r="16">
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1170725000</v>
+        <v>1161946000</v>
       </c>
       <c r="D16" t="n">
-        <v>1403624500</v>
+        <v>1385986050</v>
       </c>
     </row>
     <row r="17">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>638421000</v>
+        <v>748382000</v>
       </c>
       <c r="D17" t="n">
-        <v>772022600</v>
+        <v>896286000</v>
       </c>
     </row>
     <row r="18">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2059862000</v>
+        <v>1930161000</v>
       </c>
       <c r="D19" t="n">
-        <v>2112080600</v>
+        <v>1975659220</v>
       </c>
     </row>
     <row r="20">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2028666000</v>
+        <v>1977502000</v>
       </c>
       <c r="D20" t="n">
-        <v>2073662300</v>
+        <v>2028106160</v>
       </c>
     </row>
     <row r="21">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1113826000</v>
+        <v>1294691000</v>
       </c>
       <c r="D21" t="n">
-        <v>1143083280</v>
+        <v>1325060800</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/xlsx/연령대별_판매량.xlsx
+++ b/analysis/xlsx/연령대별_판매량.xlsx
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>511514000</v>
+        <v>561279000</v>
       </c>
       <c r="D3" t="n">
-        <v>511514000</v>
+        <v>561279000</v>
       </c>
     </row>
     <row r="4">
@@ -503,10 +503,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>544520000</v>
+        <v>504405000</v>
       </c>
       <c r="D4" t="n">
-        <v>544520000</v>
+        <v>504405000</v>
       </c>
     </row>
     <row r="5">
@@ -519,10 +519,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>347343000</v>
+        <v>337693000</v>
       </c>
       <c r="D5" t="n">
-        <v>347343000</v>
+        <v>337693000</v>
       </c>
     </row>
     <row r="6">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1137201000</v>
+        <v>1194409000</v>
       </c>
       <c r="D7" t="n">
-        <v>1762888000</v>
+        <v>1827539000</v>
       </c>
     </row>
     <row r="8">
@@ -567,10 +567,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1155804600</v>
+        <v>1087701000</v>
       </c>
       <c r="D8" t="n">
-        <v>1767089200</v>
+        <v>1670997000</v>
       </c>
     </row>
     <row r="9">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>745760000</v>
+        <v>756655600</v>
       </c>
       <c r="D9" t="n">
-        <v>1144177000</v>
+        <v>1175618200</v>
       </c>
     </row>
     <row r="10">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>974483100</v>
+        <v>1035879100</v>
       </c>
       <c r="D11" t="n">
-        <v>1337368466.666687</v>
+        <v>1405122466.666687</v>
       </c>
     </row>
     <row r="12">
@@ -631,10 +631,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>992600100</v>
+        <v>935888100</v>
       </c>
       <c r="D12" t="n">
-        <v>1345721666.666687</v>
+        <v>1274147800</v>
       </c>
     </row>
     <row r="13">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>643151000</v>
+        <v>638467000</v>
       </c>
       <c r="D13" t="n">
-        <v>874559333.333313</v>
+        <v>878379200</v>
       </c>
     </row>
     <row r="14">
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1109919000</v>
+        <v>1191185000</v>
       </c>
       <c r="D15" t="n">
-        <v>1341403550</v>
+        <v>1428485050</v>
       </c>
     </row>
     <row r="16">
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1161946000</v>
+        <v>1098279000</v>
       </c>
       <c r="D16" t="n">
-        <v>1385986050</v>
+        <v>1314020550</v>
       </c>
     </row>
     <row r="17">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>748382000</v>
+        <v>730783000</v>
       </c>
       <c r="D17" t="n">
-        <v>896286000</v>
+        <v>881170000</v>
       </c>
     </row>
     <row r="18">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1930161000</v>
+        <v>2078570000</v>
       </c>
       <c r="D19" t="n">
-        <v>1975659220</v>
+        <v>2121671820</v>
       </c>
     </row>
     <row r="20">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1977502000</v>
+        <v>1859481000</v>
       </c>
       <c r="D20" t="n">
-        <v>2028106160</v>
+        <v>1913369820</v>
       </c>
     </row>
     <row r="21">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1294691000</v>
+        <v>1264303000</v>
       </c>
       <c r="D21" t="n">
-        <v>1325060800</v>
+        <v>1293784540</v>
       </c>
     </row>
   </sheetData>
